--- a/config_6.8/prop_clear_server.xlsx
+++ b/config_6.8/prop_clear_server.xlsx
@@ -468,8 +468,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -523,7 +523,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,8 +574,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,41 +605,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,14 +631,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -631,7 +639,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,21 +658,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -686,187 +686,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,6 +921,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -954,6 +965,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -969,21 +995,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -992,17 +1003,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1011,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,133 +1023,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1529,9 +1529,9 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1663,7 +1663,7 @@
         <v>1622505600</v>
       </c>
       <c r="E6" s="12">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>17</v>
